--- a/riders.xlsx
+++ b/riders.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Query result" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Startlist" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Query result'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Query result'!$A$1:$C$921</definedName>
   </definedNames>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
@@ -418,9 +418,9 @@
   </sheetPr>
   <dimension ref="A1:D920"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -557,7 +557,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -701,7 +701,7 @@
         <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -737,7 +737,7 @@
         <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -755,7 +755,7 @@
         <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -863,7 +863,7 @@
         <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -899,7 +899,7 @@
         <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -953,7 +953,7 @@
         <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -971,7 +971,7 @@
         <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -1025,7 +1025,7 @@
         <v>7</v>
       </c>
       <c r="D33" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
@@ -1169,7 +1169,7 @@
         <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -1187,7 +1187,7 @@
         <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -1259,7 +1259,7 @@
         <v>3</v>
       </c>
       <c r="D46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
@@ -1349,7 +1349,7 @@
         <v>3</v>
       </c>
       <c r="D51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52">
@@ -1475,7 +1475,7 @@
         <v>3</v>
       </c>
       <c r="D58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
@@ -1529,7 +1529,7 @@
         <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62">
@@ -1601,7 +1601,7 @@
         <v>6</v>
       </c>
       <c r="D65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66">
@@ -1637,7 +1637,7 @@
         <v>5</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -1655,7 +1655,7 @@
         <v>5</v>
       </c>
       <c r="D68" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69">
@@ -1709,7 +1709,7 @@
         <v>4</v>
       </c>
       <c r="D71" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72">
@@ -1727,7 +1727,7 @@
         <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73">
@@ -1763,7 +1763,7 @@
         <v>3</v>
       </c>
       <c r="D74" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75">
@@ -1943,7 +1943,7 @@
         <v>2</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -2087,7 +2087,7 @@
         <v>2</v>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -2123,7 +2123,7 @@
         <v>7</v>
       </c>
       <c r="D94" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95">
@@ -2141,7 +2141,7 @@
         <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96">
@@ -2159,7 +2159,7 @@
         <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97">
@@ -2195,7 +2195,7 @@
         <v>4</v>
       </c>
       <c r="D98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99">
@@ -2213,7 +2213,7 @@
         <v>3</v>
       </c>
       <c r="D99" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100">
@@ -2267,7 +2267,7 @@
         <v>3</v>
       </c>
       <c r="D102" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103">
@@ -2303,7 +2303,7 @@
         <v>3</v>
       </c>
       <c r="D104" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105">
@@ -2321,7 +2321,7 @@
         <v>3</v>
       </c>
       <c r="D105" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106">
@@ -2357,7 +2357,7 @@
         <v>3</v>
       </c>
       <c r="D107" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108">
@@ -2393,7 +2393,7 @@
         <v>3</v>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -2411,7 +2411,7 @@
         <v>3</v>
       </c>
       <c r="D110" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111">
@@ -2465,7 +2465,7 @@
         <v>2</v>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114">
@@ -2663,7 +2663,7 @@
         <v>8</v>
       </c>
       <c r="D124" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="125">
@@ -2681,7 +2681,7 @@
         <v>6</v>
       </c>
       <c r="D125" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126">
@@ -2843,7 +2843,7 @@
         <v>4</v>
       </c>
       <c r="D134" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="135">
@@ -2915,7 +2915,7 @@
         <v>3</v>
       </c>
       <c r="D138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -2951,7 +2951,7 @@
         <v>3</v>
       </c>
       <c r="D140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141">
@@ -3005,7 +3005,7 @@
         <v>2</v>
       </c>
       <c r="D143" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144">
@@ -3095,7 +3095,7 @@
         <v>2</v>
       </c>
       <c r="D148" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="149">
@@ -3221,7 +3221,7 @@
         <v>3</v>
       </c>
       <c r="D155" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="156">
@@ -3275,7 +3275,7 @@
         <v>3</v>
       </c>
       <c r="D158" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="159">
@@ -3293,7 +3293,7 @@
         <v>3</v>
       </c>
       <c r="D159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -3311,7 +3311,7 @@
         <v>2</v>
       </c>
       <c r="D160" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="161">
@@ -3329,7 +3329,7 @@
         <v>2</v>
       </c>
       <c r="D161" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="162">
@@ -3347,7 +3347,7 @@
         <v>2</v>
       </c>
       <c r="D162" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="163">
@@ -3383,7 +3383,7 @@
         <v>2</v>
       </c>
       <c r="D164" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="165">
@@ -3509,7 +3509,7 @@
         <v>2</v>
       </c>
       <c r="D171" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="172">
@@ -3527,7 +3527,7 @@
         <v>2</v>
       </c>
       <c r="D172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -3545,7 +3545,7 @@
         <v>2</v>
       </c>
       <c r="D173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174">
@@ -3581,7 +3581,7 @@
         <v>2</v>
       </c>
       <c r="D175" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176">
@@ -3653,7 +3653,7 @@
         <v>2</v>
       </c>
       <c r="D179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180">
@@ -3743,7 +3743,7 @@
         <v>2</v>
       </c>
       <c r="D184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185">
@@ -3797,7 +3797,7 @@
         <v>2</v>
       </c>
       <c r="D187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188">
@@ -3851,7 +3851,7 @@
         <v>2</v>
       </c>
       <c r="D190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191">
@@ -3869,7 +3869,7 @@
         <v>2</v>
       </c>
       <c r="D191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -3887,7 +3887,7 @@
         <v>7</v>
       </c>
       <c r="D192" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="193">
@@ -3995,7 +3995,7 @@
         <v>5</v>
       </c>
       <c r="D198" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="199">
@@ -4031,7 +4031,7 @@
         <v>5</v>
       </c>
       <c r="D200" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="201">
@@ -4067,7 +4067,7 @@
         <v>4</v>
       </c>
       <c r="D202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -4157,7 +4157,7 @@
         <v>3</v>
       </c>
       <c r="D207" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="208">
@@ -4229,7 +4229,7 @@
         <v>3</v>
       </c>
       <c r="D211" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="212">
@@ -4265,7 +4265,7 @@
         <v>3</v>
       </c>
       <c r="D213" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="214">
@@ -4283,7 +4283,7 @@
         <v>3</v>
       </c>
       <c r="D214" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="215">
@@ -4355,7 +4355,7 @@
         <v>2</v>
       </c>
       <c r="D218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
@@ -4391,7 +4391,7 @@
         <v>2</v>
       </c>
       <c r="D220" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="221">
@@ -5201,7 +5201,7 @@
         <v>5</v>
       </c>
       <c r="D265" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="266">
@@ -5237,7 +5237,7 @@
         <v>4</v>
       </c>
       <c r="D267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
@@ -5255,7 +5255,7 @@
         <v>4</v>
       </c>
       <c r="D268" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="269">
@@ -5273,7 +5273,7 @@
         <v>3</v>
       </c>
       <c r="D269" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="270">
@@ -5363,7 +5363,7 @@
         <v>3</v>
       </c>
       <c r="D274" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="275">
@@ -5417,7 +5417,7 @@
         <v>3</v>
       </c>
       <c r="D277" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="278">
@@ -5453,7 +5453,7 @@
         <v>3</v>
       </c>
       <c r="D279" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="280">
@@ -5525,7 +5525,7 @@
         <v>3</v>
       </c>
       <c r="D283" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="284">
@@ -5561,7 +5561,7 @@
         <v>2</v>
       </c>
       <c r="D285" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="286">
@@ -5633,7 +5633,7 @@
         <v>2</v>
       </c>
       <c r="D289" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="290">
@@ -5759,7 +5759,7 @@
         <v>5</v>
       </c>
       <c r="D296" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="297">
@@ -5849,7 +5849,7 @@
         <v>3</v>
       </c>
       <c r="D301" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="302">
@@ -5921,7 +5921,7 @@
         <v>3</v>
       </c>
       <c r="D305" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="306">
@@ -5975,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="D308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309">
@@ -5993,7 +5993,7 @@
         <v>3</v>
       </c>
       <c r="D309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
@@ -6155,7 +6155,7 @@
         <v>2</v>
       </c>
       <c r="D318" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="319">
@@ -6209,7 +6209,7 @@
         <v>2</v>
       </c>
       <c r="D321" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="322">
@@ -6245,7 +6245,7 @@
         <v>2</v>
       </c>
       <c r="D323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324">
@@ -6443,7 +6443,7 @@
         <v>4</v>
       </c>
       <c r="D334" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="335">
@@ -6461,7 +6461,7 @@
         <v>4</v>
       </c>
       <c r="D335" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="336">
@@ -7037,7 +7037,7 @@
         <v>2</v>
       </c>
       <c r="D367" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368">
@@ -7235,7 +7235,7 @@
         <v>3</v>
       </c>
       <c r="D378" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="379">
@@ -7253,7 +7253,7 @@
         <v>2</v>
       </c>
       <c r="D379" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="380">
@@ -7343,7 +7343,7 @@
         <v>2</v>
       </c>
       <c r="D384" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="385">
@@ -7379,7 +7379,7 @@
         <v>2</v>
       </c>
       <c r="D386" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="387">
@@ -7397,7 +7397,7 @@
         <v>2</v>
       </c>
       <c r="D387" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388">
@@ -7415,7 +7415,7 @@
         <v>2</v>
       </c>
       <c r="D388" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="389">
@@ -7433,7 +7433,7 @@
         <v>2</v>
       </c>
       <c r="D389" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390">
@@ -7469,7 +7469,7 @@
         <v>2</v>
       </c>
       <c r="D391" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="392">
@@ -7487,7 +7487,7 @@
         <v>2</v>
       </c>
       <c r="D392" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="393">
@@ -7505,7 +7505,7 @@
         <v>2</v>
       </c>
       <c r="D393" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="394">
@@ -7919,7 +7919,7 @@
         <v>2</v>
       </c>
       <c r="D416" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417">
@@ -8009,7 +8009,7 @@
         <v>7</v>
       </c>
       <c r="D421" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="422">
@@ -8027,7 +8027,7 @@
         <v>7</v>
       </c>
       <c r="D422" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="423">
@@ -8225,7 +8225,7 @@
         <v>3</v>
       </c>
       <c r="D433" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434">
@@ -8333,7 +8333,7 @@
         <v>3</v>
       </c>
       <c r="D439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440">
@@ -8513,7 +8513,7 @@
         <v>5</v>
       </c>
       <c r="D449" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="450">
@@ -8621,7 +8621,7 @@
         <v>2</v>
       </c>
       <c r="D455" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456">
@@ -8657,7 +8657,7 @@
         <v>2</v>
       </c>
       <c r="D457" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458">
@@ -8675,7 +8675,7 @@
         <v>2</v>
       </c>
       <c r="D458" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459">
@@ -8693,7 +8693,7 @@
         <v>2</v>
       </c>
       <c r="D459" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="460">
@@ -8729,7 +8729,7 @@
         <v>2</v>
       </c>
       <c r="D461" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="462">
@@ -8801,7 +8801,7 @@
         <v>2</v>
       </c>
       <c r="D465" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466">
@@ -8855,7 +8855,7 @@
         <v>2</v>
       </c>
       <c r="D468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469">
@@ -8891,7 +8891,7 @@
         <v>2</v>
       </c>
       <c r="D470" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471">
@@ -8963,7 +8963,7 @@
         <v>6</v>
       </c>
       <c r="D474" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="475">
@@ -8999,7 +8999,7 @@
         <v>6</v>
       </c>
       <c r="D476" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="477">
@@ -9089,7 +9089,7 @@
         <v>5</v>
       </c>
       <c r="D481" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="482">
@@ -9107,7 +9107,7 @@
         <v>5</v>
       </c>
       <c r="D482" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483">
@@ -9359,7 +9359,7 @@
         <v>3</v>
       </c>
       <c r="D496" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="497">
@@ -9557,7 +9557,7 @@
         <v>5</v>
       </c>
       <c r="D507" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="508">
@@ -9683,7 +9683,7 @@
         <v>4</v>
       </c>
       <c r="D514" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515">
@@ -9719,7 +9719,7 @@
         <v>3</v>
       </c>
       <c r="D516" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="517">
@@ -9737,7 +9737,7 @@
         <v>3</v>
       </c>
       <c r="D517" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="518">
@@ -9827,7 +9827,7 @@
         <v>3</v>
       </c>
       <c r="D522" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="523">
@@ -9845,7 +9845,7 @@
         <v>3</v>
       </c>
       <c r="D523" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524">
@@ -9863,7 +9863,7 @@
         <v>3</v>
       </c>
       <c r="D524" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="525">
@@ -9881,7 +9881,7 @@
         <v>3</v>
       </c>
       <c r="D525" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="526">
@@ -9935,7 +9935,7 @@
         <v>3</v>
       </c>
       <c r="D528" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="529">
@@ -10007,7 +10007,7 @@
         <v>6</v>
       </c>
       <c r="D532" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533">
@@ -10079,7 +10079,7 @@
         <v>5</v>
       </c>
       <c r="D536" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="537">
@@ -10169,7 +10169,7 @@
         <v>4</v>
       </c>
       <c r="D541" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="542">
@@ -10187,7 +10187,7 @@
         <v>3</v>
       </c>
       <c r="D542" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="543">
@@ -10205,7 +10205,7 @@
         <v>3</v>
       </c>
       <c r="D543" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="544">
@@ -10259,7 +10259,7 @@
         <v>3</v>
       </c>
       <c r="D546" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="547">
@@ -10349,7 +10349,7 @@
         <v>3</v>
       </c>
       <c r="D551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552">
@@ -10367,7 +10367,7 @@
         <v>3</v>
       </c>
       <c r="D552" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="553">
@@ -10421,7 +10421,7 @@
         <v>2</v>
       </c>
       <c r="D555" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="556">
@@ -10493,7 +10493,7 @@
         <v>2</v>
       </c>
       <c r="D559" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="560">
@@ -10511,7 +10511,7 @@
         <v>2</v>
       </c>
       <c r="D560" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="561">
@@ -10565,7 +10565,7 @@
         <v>7</v>
       </c>
       <c r="D563" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="564">
@@ -10583,7 +10583,7 @@
         <v>5</v>
       </c>
       <c r="D564" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="565">
@@ -10637,7 +10637,7 @@
         <v>4</v>
       </c>
       <c r="D567" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="568">
@@ -10763,7 +10763,7 @@
         <v>3</v>
       </c>
       <c r="D574" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575">
@@ -10781,7 +10781,7 @@
         <v>3</v>
       </c>
       <c r="D575" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576">
@@ -10799,7 +10799,7 @@
         <v>3</v>
       </c>
       <c r="D576" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="577">
@@ -10853,7 +10853,7 @@
         <v>3</v>
       </c>
       <c r="D579" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="580">
@@ -10889,7 +10889,7 @@
         <v>2</v>
       </c>
       <c r="D581" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="582">
@@ -11051,7 +11051,7 @@
         <v>1</v>
       </c>
       <c r="D590" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591">
@@ -11069,7 +11069,7 @@
         <v>1</v>
       </c>
       <c r="D591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592">
@@ -11105,7 +11105,7 @@
         <v>9</v>
       </c>
       <c r="D593" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="594">
@@ -11141,7 +11141,7 @@
         <v>8</v>
       </c>
       <c r="D595" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="596">
@@ -11375,7 +11375,7 @@
         <v>3</v>
       </c>
       <c r="D608" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="609">
@@ -11573,7 +11573,7 @@
         <v>3</v>
       </c>
       <c r="D619" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620">
@@ -12077,7 +12077,7 @@
         <v>5</v>
       </c>
       <c r="D647" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="648">
@@ -12095,7 +12095,7 @@
         <v>5</v>
       </c>
       <c r="D648" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="649">
@@ -12131,7 +12131,7 @@
         <v>4</v>
       </c>
       <c r="D650" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="651">
@@ -12257,7 +12257,7 @@
         <v>3</v>
       </c>
       <c r="D657" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="658">
@@ -12293,7 +12293,7 @@
         <v>3</v>
       </c>
       <c r="D659" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="660">
@@ -12311,7 +12311,7 @@
         <v>3</v>
       </c>
       <c r="D660" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661">
@@ -12365,7 +12365,7 @@
         <v>3</v>
       </c>
       <c r="D663" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="664">
@@ -12419,7 +12419,7 @@
         <v>3</v>
       </c>
       <c r="D666" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667">
@@ -12581,7 +12581,7 @@
         <v>5</v>
       </c>
       <c r="D675" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="676">
@@ -12635,7 +12635,7 @@
         <v>4</v>
       </c>
       <c r="D678" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679">
@@ -12689,7 +12689,7 @@
         <v>3</v>
       </c>
       <c r="D681" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682">
@@ -12725,7 +12725,7 @@
         <v>3</v>
       </c>
       <c r="D683" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="684">
@@ -12761,7 +12761,7 @@
         <v>3</v>
       </c>
       <c r="D685" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686">
@@ -12977,7 +12977,7 @@
         <v>2</v>
       </c>
       <c r="D697" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="698">
@@ -12995,7 +12995,7 @@
         <v>2</v>
       </c>
       <c r="D698" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="699">
@@ -13067,7 +13067,7 @@
         <v>2</v>
       </c>
       <c r="D702" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703">
@@ -13085,7 +13085,7 @@
         <v>2</v>
       </c>
       <c r="D703" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704">
@@ -13193,7 +13193,7 @@
         <v>2</v>
       </c>
       <c r="D709" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="710">
@@ -13211,7 +13211,7 @@
         <v>2</v>
       </c>
       <c r="D710" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="711">
@@ -13229,7 +13229,7 @@
         <v>2</v>
       </c>
       <c r="D711" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="712">
@@ -13283,7 +13283,7 @@
         <v>2</v>
       </c>
       <c r="D714" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="715">
@@ -13355,7 +13355,7 @@
         <v>2</v>
       </c>
       <c r="D718" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719">
@@ -13409,7 +13409,7 @@
         <v>4</v>
       </c>
       <c r="D721" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="722">
@@ -13427,7 +13427,7 @@
         <v>3</v>
       </c>
       <c r="D722" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="723">
@@ -13553,7 +13553,7 @@
         <v>3</v>
       </c>
       <c r="D729" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="730">
@@ -13769,7 +13769,7 @@
         <v>2</v>
       </c>
       <c r="D741" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="742">
@@ -13841,7 +13841,7 @@
         <v>9</v>
       </c>
       <c r="D745" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="746">
@@ -13931,7 +13931,7 @@
         <v>7</v>
       </c>
       <c r="D750" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="751">
@@ -14039,7 +14039,7 @@
         <v>4</v>
       </c>
       <c r="D756" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="757">
@@ -14075,7 +14075,7 @@
         <v>4</v>
       </c>
       <c r="D758" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="759">
@@ -14093,7 +14093,7 @@
         <v>4</v>
       </c>
       <c r="D759" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="760">
@@ -14129,7 +14129,7 @@
         <v>4</v>
       </c>
       <c r="D761" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="762">
@@ -14183,7 +14183,7 @@
         <v>3</v>
       </c>
       <c r="D764" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="765">
@@ -14201,7 +14201,7 @@
         <v>3</v>
       </c>
       <c r="D765" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="766">
@@ -14291,7 +14291,7 @@
         <v>3</v>
       </c>
       <c r="D770" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="771">
@@ -14309,7 +14309,7 @@
         <v>3</v>
       </c>
       <c r="D771" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="772">
@@ -14651,7 +14651,7 @@
         <v>6</v>
       </c>
       <c r="D790" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="791">
@@ -14705,7 +14705,7 @@
         <v>3</v>
       </c>
       <c r="D793" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="794">
@@ -14759,7 +14759,7 @@
         <v>3</v>
       </c>
       <c r="D796" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="797">
@@ -15011,7 +15011,7 @@
         <v>2</v>
       </c>
       <c r="D810" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="811">
@@ -15227,7 +15227,7 @@
         <v>4</v>
       </c>
       <c r="D822" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="823">
@@ -15335,7 +15335,7 @@
         <v>3</v>
       </c>
       <c r="D828" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="829">
@@ -15353,7 +15353,7 @@
         <v>3</v>
       </c>
       <c r="D829" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="830">
@@ -15389,7 +15389,7 @@
         <v>3</v>
       </c>
       <c r="D831" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="832">
@@ -15515,7 +15515,7 @@
         <v>3</v>
       </c>
       <c r="D838" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="839">
@@ -15533,7 +15533,7 @@
         <v>3</v>
       </c>
       <c r="D839" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="840">
@@ -15551,7 +15551,7 @@
         <v>2</v>
       </c>
       <c r="D840" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="841">
@@ -15965,7 +15965,7 @@
         <v>11</v>
       </c>
       <c r="D863" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="864">
@@ -15983,7 +15983,7 @@
         <v>7</v>
       </c>
       <c r="D864" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="865">
@@ -16019,7 +16019,7 @@
         <v>6</v>
       </c>
       <c r="D866" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="867">
@@ -16181,7 +16181,7 @@
         <v>4</v>
       </c>
       <c r="D875" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="876">
@@ -16325,7 +16325,7 @@
         <v>3</v>
       </c>
       <c r="D883" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="884">
@@ -16379,7 +16379,7 @@
         <v>3</v>
       </c>
       <c r="D886" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="887">
@@ -16451,7 +16451,7 @@
         <v>3</v>
       </c>
       <c r="D890" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="891">
@@ -16523,7 +16523,7 @@
         <v>5</v>
       </c>
       <c r="D894" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="895">
@@ -16685,7 +16685,7 @@
         <v>2</v>
       </c>
       <c r="D903" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="904">
@@ -16721,7 +16721,7 @@
         <v>2</v>
       </c>
       <c r="D905" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="906">
@@ -16811,7 +16811,7 @@
         <v>2</v>
       </c>
       <c r="D910" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="911">
@@ -16919,7 +16919,7 @@
         <v>2</v>
       </c>
       <c r="D916" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="917">
@@ -16995,7 +16995,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1"/>
+  <autoFilter ref="A1:C921"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -17008,8 +17008,8 @@
   </sheetPr>
   <dimension ref="A1:T920"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -17479,7 +17479,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -17958,7 +17958,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -18012,7 +18012,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -18086,19 +18086,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -18122,7 +18122,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -18134,7 +18134,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -18150,16 +18150,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -18177,16 +18177,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -18198,7 +18198,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -18534,7 +18534,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -18555,7 +18555,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -18662,7 +18662,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -18674,7 +18674,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -18854,7 +18854,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -18887,7 +18887,7 @@
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -18918,7 +18918,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -18951,7 +18951,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -19110,7 +19110,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -19143,7 +19143,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -19622,7 +19622,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C41" t="n">
         <v>1</v>
@@ -19655,7 +19655,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -19686,7 +19686,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -19719,7 +19719,7 @@
         <v>1</v>
       </c>
       <c r="M42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -19942,7 +19942,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -19975,13 +19975,13 @@
         <v>1</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -20262,7 +20262,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -20301,7 +20301,7 @@
         <v>1</v>
       </c>
       <c r="O51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P51" t="n">
         <v>0</v>
@@ -20710,7 +20710,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -20743,13 +20743,13 @@
         <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P58" t="n">
         <v>0</v>
@@ -20902,7 +20902,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -20941,7 +20941,7 @@
         <v>0</v>
       </c>
       <c r="O61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P61" t="n">
         <v>0</v>
@@ -21063,13 +21063,13 @@
         <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
       </c>
       <c r="O63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P63" t="n">
         <v>0</v>
@@ -21158,7 +21158,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -21197,7 +21197,7 @@
         <v>1</v>
       </c>
       <c r="O65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P65" t="n">
         <v>1</v>
@@ -21286,7 +21286,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -21325,7 +21325,7 @@
         <v>0</v>
       </c>
       <c r="O67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P67" t="n">
         <v>0</v>
@@ -21350,7 +21350,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -21389,7 +21389,7 @@
         <v>0</v>
       </c>
       <c r="O68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P68" t="n">
         <v>0</v>
@@ -21542,7 +21542,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="n">
         <v>1</v>
@@ -21581,7 +21581,7 @@
         <v>1</v>
       </c>
       <c r="O71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P71" t="n">
         <v>0</v>
@@ -21606,7 +21606,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -21618,13 +21618,13 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -21654,7 +21654,7 @@
         <v>0</v>
       </c>
       <c r="R72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S72" t="n">
         <v>0</v>
@@ -21734,7 +21734,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -21773,7 +21773,7 @@
         <v>1</v>
       </c>
       <c r="O74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P74" t="n">
         <v>1</v>
@@ -22374,7 +22374,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -22413,7 +22413,7 @@
         <v>0</v>
       </c>
       <c r="O84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P84" t="n">
         <v>0</v>
@@ -22886,7 +22886,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -22898,7 +22898,7 @@
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -23014,7 +23014,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -23047,7 +23047,7 @@
         <v>0</v>
       </c>
       <c r="M94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N94" t="n">
         <v>1</v>
@@ -23078,7 +23078,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -23117,7 +23117,7 @@
         <v>0</v>
       </c>
       <c r="O95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P95" t="n">
         <v>0</v>
@@ -23142,7 +23142,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -23172,16 +23172,16 @@
         <v>1</v>
       </c>
       <c r="L96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N96" t="n">
         <v>1</v>
       </c>
       <c r="O96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P96" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -23303,7 +23303,7 @@
         <v>0</v>
       </c>
       <c r="M98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N98" t="n">
         <v>1</v>
@@ -23334,7 +23334,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C99" t="n">
         <v>1</v>
@@ -23367,7 +23367,7 @@
         <v>1</v>
       </c>
       <c r="M99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N99" t="n">
         <v>1</v>
@@ -23526,7 +23526,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="n">
         <v>1</v>
@@ -23565,7 +23565,7 @@
         <v>1</v>
       </c>
       <c r="O102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P102" t="n">
         <v>0</v>
@@ -23654,7 +23654,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C104" t="n">
         <v>1</v>
@@ -23684,10 +23684,10 @@
         <v>1</v>
       </c>
       <c r="L104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N104" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -23757,7 +23757,7 @@
         <v>1</v>
       </c>
       <c r="O105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P105" t="n">
         <v>0</v>
@@ -23812,10 +23812,10 @@
         <v>0</v>
       </c>
       <c r="L106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N106" t="n">
         <v>0</v>
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -23876,7 +23876,7 @@
         <v>1</v>
       </c>
       <c r="L107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M107" t="n">
         <v>0</v>
@@ -23885,7 +23885,7 @@
         <v>0</v>
       </c>
       <c r="O107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P107" t="n">
         <v>0</v>
@@ -23974,10 +23974,10 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D109" t="n">
         <v>0</v>
@@ -24038,7 +24038,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C110" t="n">
         <v>1</v>
@@ -24077,7 +24077,7 @@
         <v>1</v>
       </c>
       <c r="O110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P110" t="n">
         <v>0</v>
@@ -24230,7 +24230,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -24263,13 +24263,13 @@
         <v>0</v>
       </c>
       <c r="M113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N113" t="n">
         <v>0</v>
       </c>
       <c r="O113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P113" t="n">
         <v>0</v>
@@ -24934,19 +24934,19 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E124" t="n">
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G124" t="n">
         <v>0</v>
@@ -24955,40 +24955,40 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="n">
         <v>0</v>
       </c>
       <c r="K124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M124" t="n">
         <v>0</v>
       </c>
       <c r="N124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O124" t="n">
         <v>0</v>
       </c>
       <c r="P124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q124" t="n">
         <v>0</v>
       </c>
       <c r="R124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -24998,7 +24998,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="n">
         <v>1</v>
@@ -25031,7 +25031,7 @@
         <v>1</v>
       </c>
       <c r="M125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N125" t="n">
         <v>1</v>
@@ -25574,7 +25574,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C134" t="n">
         <v>1</v>
@@ -25607,7 +25607,7 @@
         <v>1</v>
       </c>
       <c r="M134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N134" t="n">
         <v>1</v>
@@ -25830,7 +25830,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G138" t="n">
         <v>0</v>
@@ -25958,10 +25958,10 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D140" t="n">
         <v>0</v>
@@ -25994,7 +25994,7 @@
         <v>0</v>
       </c>
       <c r="N140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O140" t="n">
         <v>0</v>
@@ -26150,7 +26150,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -26183,7 +26183,7 @@
         <v>1</v>
       </c>
       <c r="M143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N143" t="n">
         <v>1</v>
@@ -26470,13 +26470,13 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E148" t="n">
         <v>0</v>
@@ -26494,16 +26494,16 @@
         <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L148" t="n">
         <v>0</v>
       </c>
       <c r="M148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N148" t="n">
         <v>0</v>
@@ -26823,13 +26823,13 @@
         <v>0</v>
       </c>
       <c r="M153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N153" t="n">
         <v>0</v>
       </c>
       <c r="O153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P153" t="n">
         <v>0</v>
@@ -26918,7 +26918,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         <v>0</v>
       </c>
       <c r="O155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P155" t="n">
         <v>0</v>
@@ -27110,7 +27110,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C158" t="n">
         <v>1</v>
@@ -27149,7 +27149,7 @@
         <v>1</v>
       </c>
       <c r="O158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P158" t="n">
         <v>0</v>
@@ -27174,7 +27174,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -27207,7 +27207,7 @@
         <v>0</v>
       </c>
       <c r="M159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N159" t="n">
         <v>0</v>
@@ -27238,7 +27238,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="n">
         <v>1</v>
@@ -27271,7 +27271,7 @@
         <v>1</v>
       </c>
       <c r="M160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N160" t="n">
         <v>1</v>
@@ -27302,7 +27302,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C161" t="n">
         <v>1</v>
@@ -27335,13 +27335,13 @@
         <v>1</v>
       </c>
       <c r="M161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N161" t="n">
         <v>0</v>
       </c>
       <c r="O161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P161" t="n">
         <v>1</v>
@@ -27366,7 +27366,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -27405,7 +27405,7 @@
         <v>1</v>
       </c>
       <c r="O162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P162" t="n">
         <v>0</v>
@@ -27494,7 +27494,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -27533,7 +27533,7 @@
         <v>0</v>
       </c>
       <c r="O164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P164" t="n">
         <v>0</v>
@@ -27942,7 +27942,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -27981,7 +27981,7 @@
         <v>1</v>
       </c>
       <c r="O171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P171" t="n">
         <v>0</v>
@@ -28006,7 +28006,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -28045,7 +28045,7 @@
         <v>0</v>
       </c>
       <c r="O172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P172" t="n">
         <v>0</v>
@@ -28070,7 +28070,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -28109,7 +28109,7 @@
         <v>0</v>
       </c>
       <c r="O173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P173" t="n">
         <v>0</v>
@@ -28198,7 +28198,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -28237,7 +28237,7 @@
         <v>0</v>
       </c>
       <c r="O175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P175" t="n">
         <v>0</v>
@@ -28454,7 +28454,7 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -28493,7 +28493,7 @@
         <v>0</v>
       </c>
       <c r="O179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P179" t="n">
         <v>0</v>
@@ -28774,7 +28774,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="O184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P184" t="n">
         <v>0</v>
@@ -28966,7 +28966,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -29005,7 +29005,7 @@
         <v>0</v>
       </c>
       <c r="O187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P187" t="n">
         <v>0</v>
@@ -29158,7 +29158,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -29197,7 +29197,7 @@
         <v>0</v>
       </c>
       <c r="O190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P190" t="n">
         <v>0</v>
@@ -29222,7 +29222,7 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -29261,7 +29261,7 @@
         <v>0</v>
       </c>
       <c r="O191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P191" t="n">
         <v>0</v>
@@ -29286,7 +29286,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="O192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P192" t="n">
         <v>0</v>
@@ -29670,7 +29670,7 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -29700,7 +29700,7 @@
         <v>0</v>
       </c>
       <c r="L198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M198" t="n">
         <v>0</v>
@@ -29798,7 +29798,7 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -29831,7 +29831,7 @@
         <v>1</v>
       </c>
       <c r="M200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N200" t="n">
         <v>1</v>
@@ -29926,7 +29926,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -29938,7 +29938,7 @@
         <v>0</v>
       </c>
       <c r="F202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G202" t="n">
         <v>0</v>
@@ -30246,7 +30246,7 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -30276,7 +30276,7 @@
         <v>1</v>
       </c>
       <c r="L207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M207" t="n">
         <v>1</v>
@@ -30285,7 +30285,7 @@
         <v>0</v>
       </c>
       <c r="O207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P207" t="n">
         <v>0</v>
@@ -30502,7 +30502,7 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -30541,7 +30541,7 @@
         <v>1</v>
       </c>
       <c r="O211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P211" t="n">
         <v>0</v>
@@ -30630,7 +30630,7 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C213" t="n">
         <v>1</v>
@@ -30669,7 +30669,7 @@
         <v>1</v>
       </c>
       <c r="O213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P213" t="n">
         <v>0</v>
@@ -30694,7 +30694,7 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -30733,7 +30733,7 @@
         <v>0</v>
       </c>
       <c r="O214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P214" t="n">
         <v>0</v>
@@ -30950,7 +30950,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -30983,7 +30983,7 @@
         <v>0</v>
       </c>
       <c r="M218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N218" t="n">
         <v>0</v>
@@ -31078,13 +31078,13 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E220" t="n">
         <v>0</v>
@@ -31126,7 +31126,7 @@
         <v>0</v>
       </c>
       <c r="R220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S220" t="n">
         <v>0</v>
@@ -33958,7 +33958,7 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -33988,7 +33988,7 @@
         <v>0</v>
       </c>
       <c r="L265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M265" t="n">
         <v>1</v>
@@ -34086,7 +34086,7 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -34101,7 +34101,7 @@
         <v>0</v>
       </c>
       <c r="G267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -34150,7 +34150,7 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C268" t="n">
         <v>1</v>
@@ -34183,7 +34183,7 @@
         <v>0</v>
       </c>
       <c r="M268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N268" t="n">
         <v>0</v>
@@ -34214,7 +34214,7 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C269" t="n">
         <v>1</v>
@@ -34253,7 +34253,7 @@
         <v>1</v>
       </c>
       <c r="O269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P269" t="n">
         <v>1</v>
@@ -34534,7 +34534,7 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C274" t="n">
         <v>1</v>
@@ -34573,7 +34573,7 @@
         <v>1</v>
       </c>
       <c r="O274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P274" t="n">
         <v>0</v>
@@ -34726,7 +34726,7 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C277" t="n">
         <v>1</v>
@@ -34765,7 +34765,7 @@
         <v>1</v>
       </c>
       <c r="O277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P277" t="n">
         <v>0</v>
@@ -34854,7 +34854,7 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -34881,7 +34881,7 @@
         <v>0</v>
       </c>
       <c r="K279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L279" t="n">
         <v>0</v>
@@ -34890,10 +34890,10 @@
         <v>0</v>
       </c>
       <c r="N279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P279" t="n">
         <v>0</v>
@@ -34954,10 +34954,10 @@
         <v>1</v>
       </c>
       <c r="N280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P280" t="n">
         <v>1</v>
@@ -35110,7 +35110,7 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C283" t="n">
         <v>1</v>
@@ -35149,7 +35149,7 @@
         <v>1</v>
       </c>
       <c r="O283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P283" t="n">
         <v>0</v>
@@ -35238,7 +35238,7 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C285" t="n">
         <v>1</v>
@@ -35277,7 +35277,7 @@
         <v>0</v>
       </c>
       <c r="O285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P285" t="n">
         <v>0</v>
@@ -35494,7 +35494,7 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -35506,10 +35506,10 @@
         <v>0</v>
       </c>
       <c r="F289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -35533,7 +35533,7 @@
         <v>0</v>
       </c>
       <c r="O289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P289" t="n">
         <v>0</v>
@@ -35942,7 +35942,7 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -35975,7 +35975,7 @@
         <v>0</v>
       </c>
       <c r="M296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N296" t="n">
         <v>0</v>
@@ -36262,7 +36262,7 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -36301,7 +36301,7 @@
         <v>0</v>
       </c>
       <c r="O301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P301" t="n">
         <v>1</v>
@@ -36518,7 +36518,7 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -36557,7 +36557,7 @@
         <v>1</v>
       </c>
       <c r="O305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P305" t="n">
         <v>0</v>
@@ -36710,7 +36710,7 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -36743,7 +36743,7 @@
         <v>0</v>
       </c>
       <c r="M308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N308" t="n">
         <v>0</v>
@@ -36774,7 +36774,7 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -36813,7 +36813,7 @@
         <v>0</v>
       </c>
       <c r="O309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P309" t="n">
         <v>0</v>
@@ -37350,7 +37350,7 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C318" t="n">
         <v>1</v>
@@ -37383,7 +37383,7 @@
         <v>1</v>
       </c>
       <c r="M318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N318" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -37581,7 +37581,7 @@
         <v>1</v>
       </c>
       <c r="O321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P321" t="n">
         <v>0</v>
@@ -37670,7 +37670,7 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -37703,13 +37703,13 @@
         <v>0</v>
       </c>
       <c r="M323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N323" t="n">
         <v>0</v>
       </c>
       <c r="O323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P323" t="n">
         <v>0</v>
@@ -38374,7 +38374,7 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -38386,7 +38386,7 @@
         <v>0</v>
       </c>
       <c r="F334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G334" t="n">
         <v>0</v>
@@ -38395,7 +38395,7 @@
         <v>0</v>
       </c>
       <c r="I334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J334" t="n">
         <v>0</v>
@@ -38407,10 +38407,10 @@
         <v>0</v>
       </c>
       <c r="M334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O334" t="n">
         <v>0</v>
@@ -38422,13 +38422,13 @@
         <v>0</v>
       </c>
       <c r="R334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335">
@@ -38438,7 +38438,7 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C335" t="n">
         <v>1</v>
@@ -38471,7 +38471,7 @@
         <v>1</v>
       </c>
       <c r="M335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N335" t="n">
         <v>1</v>
@@ -40486,7 +40486,7 @@
         </is>
       </c>
       <c r="B367" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C367" t="n">
         <v>0</v>
@@ -40501,10 +40501,10 @@
         <v>0</v>
       </c>
       <c r="G367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I367" t="n">
         <v>1</v>
@@ -41190,7 +41190,7 @@
         </is>
       </c>
       <c r="B378" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C378" t="n">
         <v>1</v>
@@ -41223,7 +41223,7 @@
         <v>0</v>
       </c>
       <c r="M378" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N378" t="n">
         <v>1</v>
@@ -41254,7 +41254,7 @@
         </is>
       </c>
       <c r="B379" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C379" t="n">
         <v>1</v>
@@ -41293,7 +41293,7 @@
         <v>0</v>
       </c>
       <c r="O379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P379" t="n">
         <v>0</v>
@@ -41574,7 +41574,7 @@
         </is>
       </c>
       <c r="B384" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C384" t="n">
         <v>0</v>
@@ -41613,7 +41613,7 @@
         <v>1</v>
       </c>
       <c r="O384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P384" t="n">
         <v>0</v>
@@ -41702,7 +41702,7 @@
         </is>
       </c>
       <c r="B386" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C386" t="n">
         <v>0</v>
@@ -41741,7 +41741,7 @@
         <v>0</v>
       </c>
       <c r="O386" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P386" t="n">
         <v>0</v>
@@ -41766,7 +41766,7 @@
         </is>
       </c>
       <c r="B387" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C387" t="n">
         <v>0</v>
@@ -41799,7 +41799,7 @@
         <v>0</v>
       </c>
       <c r="M387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N387" t="n">
         <v>0</v>
@@ -41830,7 +41830,7 @@
         </is>
       </c>
       <c r="B388" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C388" t="n">
         <v>0</v>
@@ -41869,7 +41869,7 @@
         <v>0</v>
       </c>
       <c r="O388" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P388" t="n">
         <v>0</v>
@@ -41894,7 +41894,7 @@
         </is>
       </c>
       <c r="B389" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C389" t="n">
         <v>0</v>
@@ -41927,7 +41927,7 @@
         <v>0</v>
       </c>
       <c r="M389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N389" t="n">
         <v>0</v>
@@ -42022,7 +42022,7 @@
         </is>
       </c>
       <c r="B391" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C391" t="n">
         <v>0</v>
@@ -42061,7 +42061,7 @@
         <v>1</v>
       </c>
       <c r="O391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P391" t="n">
         <v>0</v>
@@ -42086,7 +42086,7 @@
         </is>
       </c>
       <c r="B392" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C392" t="n">
         <v>0</v>
@@ -42119,7 +42119,7 @@
         <v>0</v>
       </c>
       <c r="M392" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N392" t="n">
         <v>0</v>
@@ -42150,7 +42150,7 @@
         </is>
       </c>
       <c r="B393" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C393" t="n">
         <v>1</v>
@@ -42183,13 +42183,13 @@
         <v>0</v>
       </c>
       <c r="M393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N393" t="n">
         <v>1</v>
       </c>
       <c r="O393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P393" t="n">
         <v>0</v>
@@ -42247,13 +42247,13 @@
         <v>0</v>
       </c>
       <c r="M394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N394" t="n">
         <v>0</v>
       </c>
       <c r="O394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P394" t="n">
         <v>0</v>
@@ -43622,7 +43622,7 @@
         </is>
       </c>
       <c r="B416" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C416" t="n">
         <v>0</v>
@@ -43661,7 +43661,7 @@
         <v>0</v>
       </c>
       <c r="O416" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P416" t="n">
         <v>0</v>
@@ -43942,7 +43942,7 @@
         </is>
       </c>
       <c r="B421" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C421" t="n">
         <v>0</v>
@@ -43963,16 +43963,16 @@
         <v>0</v>
       </c>
       <c r="I421" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J421" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K421" t="n">
         <v>0</v>
       </c>
       <c r="L421" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M421" t="n">
         <v>0</v>
@@ -43984,7 +43984,7 @@
         <v>0</v>
       </c>
       <c r="P421" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q421" t="n">
         <v>0</v>
@@ -44006,10 +44006,10 @@
         </is>
       </c>
       <c r="B422" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D422" t="n">
         <v>0</v>
@@ -44033,22 +44033,22 @@
         <v>0</v>
       </c>
       <c r="K422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O422" t="n">
         <v>0</v>
       </c>
       <c r="P422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q422" t="n">
         <v>0</v>
@@ -44710,7 +44710,7 @@
         </is>
       </c>
       <c r="B433" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C433" t="n">
         <v>0</v>
@@ -44722,7 +44722,7 @@
         <v>0</v>
       </c>
       <c r="F433" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G433" t="n">
         <v>0</v>
@@ -45094,13 +45094,13 @@
         </is>
       </c>
       <c r="B439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C439" t="n">
         <v>0</v>
       </c>
       <c r="D439" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E439" t="n">
         <v>0</v>
@@ -45118,7 +45118,7 @@
         <v>0</v>
       </c>
       <c r="J439" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K439" t="n">
         <v>0</v>
@@ -45734,7 +45734,7 @@
         </is>
       </c>
       <c r="B449" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C449" t="n">
         <v>0</v>
@@ -45773,7 +45773,7 @@
         <v>0</v>
       </c>
       <c r="O449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P449" t="n">
         <v>0</v>
@@ -46118,7 +46118,7 @@
         </is>
       </c>
       <c r="B455" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C455" t="n">
         <v>0</v>
@@ -46157,7 +46157,7 @@
         <v>0</v>
       </c>
       <c r="O455" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P455" t="n">
         <v>0</v>
@@ -46246,7 +46246,7 @@
         </is>
       </c>
       <c r="B457" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C457" t="n">
         <v>0</v>
@@ -46261,7 +46261,7 @@
         <v>0</v>
       </c>
       <c r="G457" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H457" t="n">
         <v>0</v>
@@ -46310,10 +46310,10 @@
         </is>
       </c>
       <c r="B458" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C458" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D458" t="n">
         <v>0</v>
@@ -46374,7 +46374,7 @@
         </is>
       </c>
       <c r="B459" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C459" t="n">
         <v>1</v>
@@ -46413,7 +46413,7 @@
         <v>0</v>
       </c>
       <c r="O459" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P459" t="n">
         <v>0</v>
@@ -46502,7 +46502,7 @@
         </is>
       </c>
       <c r="B461" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C461" t="n">
         <v>0</v>
@@ -46541,7 +46541,7 @@
         <v>0</v>
       </c>
       <c r="O461" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P461" t="n">
         <v>0</v>
@@ -46758,7 +46758,7 @@
         </is>
       </c>
       <c r="B465" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C465" t="n">
         <v>0</v>
@@ -46797,7 +46797,7 @@
         <v>0</v>
       </c>
       <c r="O465" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P465" t="n">
         <v>0</v>
@@ -46950,16 +46950,16 @@
         </is>
       </c>
       <c r="B468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C468" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D468" t="n">
         <v>0</v>
       </c>
       <c r="E468" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F468" t="n">
         <v>0</v>
@@ -47078,7 +47078,7 @@
         </is>
       </c>
       <c r="B470" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C470" t="n">
         <v>0</v>
@@ -47108,7 +47108,7 @@
         <v>0</v>
       </c>
       <c r="L470" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M470" t="n">
         <v>0</v>
@@ -47334,7 +47334,7 @@
         </is>
       </c>
       <c r="B474" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C474" t="n">
         <v>0</v>
@@ -47382,13 +47382,13 @@
         <v>0</v>
       </c>
       <c r="R474" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S474" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T474" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475">
@@ -47462,7 +47462,7 @@
         </is>
       </c>
       <c r="B476" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C476" t="n">
         <v>1</v>
@@ -47495,7 +47495,7 @@
         <v>1</v>
       </c>
       <c r="M476" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N476" t="n">
         <v>0</v>
@@ -47782,7 +47782,7 @@
         </is>
       </c>
       <c r="B481" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C481" t="n">
         <v>0</v>
@@ -47803,22 +47803,22 @@
         <v>0</v>
       </c>
       <c r="I481" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J481" t="n">
         <v>0</v>
       </c>
       <c r="K481" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L481" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M481" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N481" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O481" t="n">
         <v>0</v>
@@ -47846,7 +47846,7 @@
         </is>
       </c>
       <c r="B482" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C482" t="n">
         <v>0</v>
@@ -47858,7 +47858,7 @@
         <v>0</v>
       </c>
       <c r="F482" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G482" t="n">
         <v>0</v>
@@ -48742,7 +48742,7 @@
         </is>
       </c>
       <c r="B496" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C496" t="n">
         <v>1</v>
@@ -48775,7 +48775,7 @@
         <v>0</v>
       </c>
       <c r="M496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N496" t="n">
         <v>1</v>
@@ -49446,7 +49446,7 @@
         </is>
       </c>
       <c r="B507" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C507" t="n">
         <v>0</v>
@@ -49479,13 +49479,13 @@
         <v>0</v>
       </c>
       <c r="M507" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N507" t="n">
         <v>0</v>
       </c>
       <c r="O507" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P507" t="n">
         <v>0</v>
@@ -49796,10 +49796,10 @@
         <v>0</v>
       </c>
       <c r="L512" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M512" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N512" t="n">
         <v>1</v>
@@ -49894,7 +49894,7 @@
         </is>
       </c>
       <c r="B514" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C514" t="n">
         <v>0</v>
@@ -49927,7 +49927,7 @@
         <v>0</v>
       </c>
       <c r="M514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N514" t="n">
         <v>0</v>
@@ -50022,7 +50022,7 @@
         </is>
       </c>
       <c r="B516" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C516" t="n">
         <v>0</v>
@@ -50052,7 +50052,7 @@
         <v>0</v>
       </c>
       <c r="L516" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M516" t="n">
         <v>1</v>
@@ -50086,7 +50086,7 @@
         </is>
       </c>
       <c r="B517" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C517" t="n">
         <v>0</v>
@@ -50125,7 +50125,7 @@
         <v>0</v>
       </c>
       <c r="O517" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P517" t="n">
         <v>0</v>
@@ -50311,13 +50311,13 @@
         <v>0</v>
       </c>
       <c r="M520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N520" t="n">
         <v>0</v>
       </c>
       <c r="O520" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P520" t="n">
         <v>0</v>
@@ -50406,7 +50406,7 @@
         </is>
       </c>
       <c r="B522" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C522" t="n">
         <v>0</v>
@@ -50445,7 +50445,7 @@
         <v>0</v>
       </c>
       <c r="O522" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P522" t="n">
         <v>0</v>
@@ -50470,7 +50470,7 @@
         </is>
       </c>
       <c r="B523" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C523" t="n">
         <v>0</v>
@@ -50509,7 +50509,7 @@
         <v>0</v>
       </c>
       <c r="O523" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P523" t="n">
         <v>0</v>
@@ -50534,7 +50534,7 @@
         </is>
       </c>
       <c r="B524" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C524" t="n">
         <v>1</v>
@@ -50564,7 +50564,7 @@
         <v>0</v>
       </c>
       <c r="L524" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M524" t="n">
         <v>1</v>
@@ -50598,7 +50598,7 @@
         </is>
       </c>
       <c r="B525" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C525" t="n">
         <v>1</v>
@@ -50628,7 +50628,7 @@
         <v>1</v>
       </c>
       <c r="L525" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M525" t="n">
         <v>0</v>
@@ -50790,7 +50790,7 @@
         </is>
       </c>
       <c r="B528" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C528" t="n">
         <v>0</v>
@@ -50820,16 +50820,16 @@
         <v>0</v>
       </c>
       <c r="L528" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N528" t="n">
         <v>0</v>
       </c>
       <c r="O528" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P528" t="n">
         <v>0</v>
@@ -51046,7 +51046,7 @@
         </is>
       </c>
       <c r="B532" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C532" t="n">
         <v>0</v>
@@ -51076,10 +51076,10 @@
         <v>0</v>
       </c>
       <c r="L532" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M532" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N532" t="n">
         <v>0</v>
@@ -51302,7 +51302,7 @@
         </is>
       </c>
       <c r="B536" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C536" t="n">
         <v>1</v>
@@ -51341,7 +51341,7 @@
         <v>1</v>
       </c>
       <c r="O536" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P536" t="n">
         <v>1</v>
@@ -51622,7 +51622,7 @@
         </is>
       </c>
       <c r="B541" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C541" t="n">
         <v>1</v>
@@ -51661,7 +51661,7 @@
         <v>1</v>
       </c>
       <c r="O541" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P541" t="n">
         <v>0</v>
@@ -51686,7 +51686,7 @@
         </is>
       </c>
       <c r="B542" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C542" t="n">
         <v>1</v>
@@ -51719,7 +51719,7 @@
         <v>0</v>
       </c>
       <c r="M542" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N542" t="n">
         <v>1</v>
@@ -51750,7 +51750,7 @@
         </is>
       </c>
       <c r="B543" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C543" t="n">
         <v>0</v>
@@ -51789,7 +51789,7 @@
         <v>0</v>
       </c>
       <c r="O543" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P543" t="n">
         <v>0</v>
@@ -51942,7 +51942,7 @@
         </is>
       </c>
       <c r="B546" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C546" t="n">
         <v>1</v>
@@ -51981,7 +51981,7 @@
         <v>0</v>
       </c>
       <c r="O546" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P546" t="n">
         <v>1</v>
@@ -52262,7 +52262,7 @@
         </is>
       </c>
       <c r="B551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C551" t="n">
         <v>0</v>
@@ -52274,7 +52274,7 @@
         <v>0</v>
       </c>
       <c r="F551" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G551" t="n">
         <v>0</v>
@@ -52283,7 +52283,7 @@
         <v>0</v>
       </c>
       <c r="I551" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J551" t="n">
         <v>0</v>
@@ -52326,7 +52326,7 @@
         </is>
       </c>
       <c r="B552" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C552" t="n">
         <v>0</v>
@@ -52365,7 +52365,7 @@
         <v>0</v>
       </c>
       <c r="O552" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P552" t="n">
         <v>0</v>
@@ -52518,7 +52518,7 @@
         </is>
       </c>
       <c r="B555" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C555" t="n">
         <v>0</v>
@@ -52548,7 +52548,7 @@
         <v>1</v>
       </c>
       <c r="L555" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M555" t="n">
         <v>0</v>
@@ -52774,7 +52774,7 @@
         </is>
       </c>
       <c r="B559" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C559" t="n">
         <v>0</v>
@@ -52813,7 +52813,7 @@
         <v>0</v>
       </c>
       <c r="O559" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P559" t="n">
         <v>0</v>
@@ -52838,7 +52838,7 @@
         </is>
       </c>
       <c r="B560" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C560" t="n">
         <v>1</v>
@@ -52868,7 +52868,7 @@
         <v>1</v>
       </c>
       <c r="L560" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M560" t="n">
         <v>0</v>
@@ -52999,13 +52999,13 @@
         <v>1</v>
       </c>
       <c r="M562" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N562" t="n">
         <v>0</v>
       </c>
       <c r="O562" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P562" t="n">
         <v>0</v>
@@ -53030,7 +53030,7 @@
         </is>
       </c>
       <c r="B563" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C563" t="n">
         <v>0</v>
@@ -53063,7 +53063,7 @@
         <v>0</v>
       </c>
       <c r="M563" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N563" t="n">
         <v>1</v>
@@ -53094,19 +53094,19 @@
         </is>
       </c>
       <c r="B564" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C564" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D564" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E564" t="n">
         <v>0</v>
       </c>
       <c r="F564" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G564" t="n">
         <v>0</v>
@@ -53115,34 +53115,34 @@
         <v>0</v>
       </c>
       <c r="I564" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J564" t="n">
         <v>0</v>
       </c>
       <c r="K564" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L564" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M564" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N564" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O564" t="n">
         <v>0</v>
       </c>
       <c r="P564" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q564" t="n">
         <v>0</v>
       </c>
       <c r="R564" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S564" t="n">
         <v>0</v>
@@ -53286,7 +53286,7 @@
         </is>
       </c>
       <c r="B567" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C567" t="n">
         <v>0</v>
@@ -53325,7 +53325,7 @@
         <v>1</v>
       </c>
       <c r="O567" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P567" t="n">
         <v>0</v>
@@ -53734,19 +53734,19 @@
         </is>
       </c>
       <c r="B574" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C574" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D574" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E574" t="n">
         <v>0</v>
       </c>
       <c r="F574" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G574" t="n">
         <v>0</v>
@@ -53798,13 +53798,13 @@
         </is>
       </c>
       <c r="B575" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E575" t="n">
         <v>0</v>
@@ -53822,19 +53822,19 @@
         <v>0</v>
       </c>
       <c r="J575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O575" t="n">
         <v>0</v>
@@ -53862,13 +53862,13 @@
         </is>
       </c>
       <c r="B576" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C576" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D576" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E576" t="n">
         <v>0</v>
@@ -53883,7 +53883,7 @@
         <v>0</v>
       </c>
       <c r="I576" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J576" t="n">
         <v>0</v>
@@ -53898,7 +53898,7 @@
         <v>0</v>
       </c>
       <c r="N576" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O576" t="n">
         <v>0</v>
@@ -54054,7 +54054,7 @@
         </is>
       </c>
       <c r="B579" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C579" t="n">
         <v>0</v>
@@ -54093,7 +54093,7 @@
         <v>0</v>
       </c>
       <c r="O579" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P579" t="n">
         <v>0</v>
@@ -54182,7 +54182,7 @@
         </is>
       </c>
       <c r="B581" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C581" t="n">
         <v>1</v>
@@ -54221,7 +54221,7 @@
         <v>0</v>
       </c>
       <c r="O581" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P581" t="n">
         <v>0</v>
@@ -54758,7 +54758,7 @@
         </is>
       </c>
       <c r="B590" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C590" t="n">
         <v>0</v>
@@ -54797,7 +54797,7 @@
         <v>0</v>
       </c>
       <c r="O590" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P590" t="n">
         <v>0</v>
@@ -54822,7 +54822,7 @@
         </is>
       </c>
       <c r="B591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C591" t="n">
         <v>0</v>
@@ -54855,13 +54855,13 @@
         <v>0</v>
       </c>
       <c r="M591" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N591" t="n">
         <v>0</v>
       </c>
       <c r="O591" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P591" t="n">
         <v>0</v>
@@ -54950,7 +54950,7 @@
         </is>
       </c>
       <c r="B593" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C593" t="n">
         <v>1</v>
@@ -54983,7 +54983,7 @@
         <v>0</v>
       </c>
       <c r="M593" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N593" t="n">
         <v>1</v>
@@ -55078,7 +55078,7 @@
         </is>
       </c>
       <c r="B595" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C595" t="n">
         <v>1</v>
@@ -55111,7 +55111,7 @@
         <v>1</v>
       </c>
       <c r="M595" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N595" t="n">
         <v>1</v>
@@ -55910,7 +55910,7 @@
         </is>
       </c>
       <c r="B608" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C608" t="n">
         <v>1</v>
@@ -55943,7 +55943,7 @@
         <v>0</v>
       </c>
       <c r="M608" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N608" t="n">
         <v>1</v>
@@ -56614,7 +56614,7 @@
         </is>
       </c>
       <c r="B619" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C619" t="n">
         <v>0</v>
@@ -56647,7 +56647,7 @@
         <v>0</v>
       </c>
       <c r="M619" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N619" t="n">
         <v>0</v>
@@ -58406,7 +58406,7 @@
         </is>
       </c>
       <c r="B647" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C647" t="n">
         <v>0</v>
@@ -58439,7 +58439,7 @@
         <v>0</v>
       </c>
       <c r="M647" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N647" t="n">
         <v>0</v>
@@ -58470,7 +58470,7 @@
         </is>
       </c>
       <c r="B648" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C648" t="n">
         <v>1</v>
@@ -58503,7 +58503,7 @@
         <v>1</v>
       </c>
       <c r="M648" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N648" t="n">
         <v>1</v>
@@ -58598,7 +58598,7 @@
         </is>
       </c>
       <c r="B650" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C650" t="n">
         <v>1</v>
@@ -58637,7 +58637,7 @@
         <v>1</v>
       </c>
       <c r="O650" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P650" t="n">
         <v>0</v>
@@ -59046,7 +59046,7 @@
         </is>
       </c>
       <c r="B657" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C657" t="n">
         <v>0</v>
@@ -59085,7 +59085,7 @@
         <v>0</v>
       </c>
       <c r="O657" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P657" t="n">
         <v>0</v>
@@ -59174,7 +59174,7 @@
         </is>
       </c>
       <c r="B659" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C659" t="n">
         <v>0</v>
@@ -59207,7 +59207,7 @@
         <v>0</v>
       </c>
       <c r="M659" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N659" t="n">
         <v>1</v>
@@ -59238,7 +59238,7 @@
         </is>
       </c>
       <c r="B660" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C660" t="n">
         <v>0</v>
@@ -59277,7 +59277,7 @@
         <v>0</v>
       </c>
       <c r="O660" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P660" t="n">
         <v>0</v>
@@ -59430,7 +59430,7 @@
         </is>
       </c>
       <c r="B663" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C663" t="n">
         <v>0</v>
@@ -59469,7 +59469,7 @@
         <v>0</v>
       </c>
       <c r="O663" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P663" t="n">
         <v>0</v>
@@ -59622,7 +59622,7 @@
         </is>
       </c>
       <c r="B666" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C666" t="n">
         <v>0</v>
@@ -59634,7 +59634,7 @@
         <v>0</v>
       </c>
       <c r="F666" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G666" t="n">
         <v>0</v>
@@ -60198,13 +60198,13 @@
         </is>
       </c>
       <c r="B675" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C675" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D675" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E675" t="n">
         <v>0</v>
@@ -60219,34 +60219,34 @@
         <v>0</v>
       </c>
       <c r="I675" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J675" t="n">
         <v>0</v>
       </c>
       <c r="K675" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L675" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M675" t="n">
         <v>0</v>
       </c>
       <c r="N675" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O675" t="n">
         <v>0</v>
       </c>
       <c r="P675" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q675" t="n">
         <v>0</v>
       </c>
       <c r="R675" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S675" t="n">
         <v>0</v>
@@ -60390,7 +60390,7 @@
         </is>
       </c>
       <c r="B678" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C678" t="n">
         <v>1</v>
@@ -60423,7 +60423,7 @@
         <v>0</v>
       </c>
       <c r="M678" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N678" t="n">
         <v>0</v>
@@ -60582,7 +60582,7 @@
         </is>
       </c>
       <c r="B681" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C681" t="n">
         <v>0</v>
@@ -60615,7 +60615,7 @@
         <v>0</v>
       </c>
       <c r="M681" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N681" t="n">
         <v>0</v>
@@ -60710,7 +60710,7 @@
         </is>
       </c>
       <c r="B683" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C683" t="n">
         <v>0</v>
@@ -60743,7 +60743,7 @@
         <v>1</v>
       </c>
       <c r="M683" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N683" t="n">
         <v>1</v>
@@ -60838,7 +60838,7 @@
         </is>
       </c>
       <c r="B685" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C685" t="n">
         <v>0</v>
@@ -60886,7 +60886,7 @@
         <v>0</v>
       </c>
       <c r="R685" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S685" t="n">
         <v>0</v>
@@ -61606,7 +61606,7 @@
         </is>
       </c>
       <c r="B697" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C697" t="n">
         <v>0</v>
@@ -61636,7 +61636,7 @@
         <v>0</v>
       </c>
       <c r="L697" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M697" t="n">
         <v>1</v>
@@ -61670,7 +61670,7 @@
         </is>
       </c>
       <c r="B698" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C698" t="n">
         <v>0</v>
@@ -61703,7 +61703,7 @@
         <v>0</v>
       </c>
       <c r="M698" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N698" t="n">
         <v>0</v>
@@ -61926,7 +61926,7 @@
         </is>
       </c>
       <c r="B702" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C702" t="n">
         <v>0</v>
@@ -61965,7 +61965,7 @@
         <v>0</v>
       </c>
       <c r="O702" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P702" t="n">
         <v>0</v>
@@ -61990,7 +61990,7 @@
         </is>
       </c>
       <c r="B703" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C703" t="n">
         <v>0</v>
@@ -62029,7 +62029,7 @@
         <v>0</v>
       </c>
       <c r="O703" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P703" t="n">
         <v>0</v>
@@ -62374,7 +62374,7 @@
         </is>
       </c>
       <c r="B709" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C709" t="n">
         <v>0</v>
@@ -62413,7 +62413,7 @@
         <v>0</v>
       </c>
       <c r="O709" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P709" t="n">
         <v>0</v>
@@ -62438,7 +62438,7 @@
         </is>
       </c>
       <c r="B710" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C710" t="n">
         <v>0</v>
@@ -62477,7 +62477,7 @@
         <v>0</v>
       </c>
       <c r="O710" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P710" t="n">
         <v>0</v>
@@ -62502,7 +62502,7 @@
         </is>
       </c>
       <c r="B711" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C711" t="n">
         <v>0</v>
@@ -62517,10 +62517,10 @@
         <v>0</v>
       </c>
       <c r="G711" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I711" t="n">
         <v>0</v>
@@ -62541,7 +62541,7 @@
         <v>0</v>
       </c>
       <c r="O711" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P711" t="n">
         <v>0</v>
@@ -62694,7 +62694,7 @@
         </is>
       </c>
       <c r="B714" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C714" t="n">
         <v>0</v>
@@ -62733,7 +62733,7 @@
         <v>0</v>
       </c>
       <c r="O714" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P714" t="n">
         <v>0</v>
@@ -62950,7 +62950,7 @@
         </is>
       </c>
       <c r="B718" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C718" t="n">
         <v>0</v>
@@ -62989,7 +62989,7 @@
         <v>0</v>
       </c>
       <c r="O718" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P718" t="n">
         <v>0</v>
@@ -63111,13 +63111,13 @@
         <v>0</v>
       </c>
       <c r="M720" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N720" t="n">
         <v>1</v>
       </c>
       <c r="O720" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P720" t="n">
         <v>1</v>
@@ -63142,7 +63142,7 @@
         </is>
       </c>
       <c r="B721" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C721" t="n">
         <v>0</v>
@@ -63175,13 +63175,13 @@
         <v>0</v>
       </c>
       <c r="M721" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N721" t="n">
         <v>0</v>
       </c>
       <c r="O721" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P721" t="n">
         <v>0</v>
@@ -63206,7 +63206,7 @@
         </is>
       </c>
       <c r="B722" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C722" t="n">
         <v>0</v>
@@ -63245,7 +63245,7 @@
         <v>1</v>
       </c>
       <c r="O722" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P722" t="n">
         <v>0</v>
@@ -63559,13 +63559,13 @@
         <v>0</v>
       </c>
       <c r="M727" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N727" t="n">
         <v>1</v>
       </c>
       <c r="O727" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P727" t="n">
         <v>0</v>
@@ -63654,7 +63654,7 @@
         </is>
       </c>
       <c r="B729" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C729" t="n">
         <v>0</v>
@@ -63693,7 +63693,7 @@
         <v>1</v>
       </c>
       <c r="O729" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P729" t="n">
         <v>0</v>
@@ -64422,7 +64422,7 @@
         </is>
       </c>
       <c r="B741" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C741" t="n">
         <v>0</v>
@@ -64455,13 +64455,13 @@
         <v>0</v>
       </c>
       <c r="M741" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N741" t="n">
         <v>0</v>
       </c>
       <c r="O741" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P741" t="n">
         <v>0</v>
@@ -64519,13 +64519,13 @@
         <v>0</v>
       </c>
       <c r="M742" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N742" t="n">
         <v>1</v>
       </c>
       <c r="O742" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P742" t="n">
         <v>0</v>
@@ -64678,7 +64678,7 @@
         </is>
       </c>
       <c r="B745" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C745" t="n">
         <v>0</v>
@@ -64723,7 +64723,7 @@
         <v>0</v>
       </c>
       <c r="Q745" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R745" t="n">
         <v>0</v>
@@ -64998,13 +64998,13 @@
         </is>
       </c>
       <c r="B750" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C750" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D750" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E750" t="n">
         <v>0</v>
@@ -65019,28 +65019,28 @@
         <v>0</v>
       </c>
       <c r="I750" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J750" t="n">
         <v>0</v>
       </c>
       <c r="K750" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L750" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M750" t="n">
         <v>0</v>
       </c>
       <c r="N750" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O750" t="n">
         <v>0</v>
       </c>
       <c r="P750" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q750" t="n">
         <v>0</v>
@@ -65287,13 +65287,13 @@
         <v>1</v>
       </c>
       <c r="M754" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N754" t="n">
         <v>1</v>
       </c>
       <c r="O754" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P754" t="n">
         <v>1</v>
@@ -65382,7 +65382,7 @@
         </is>
       </c>
       <c r="B756" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C756" t="n">
         <v>1</v>
@@ -65421,7 +65421,7 @@
         <v>0</v>
       </c>
       <c r="O756" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P756" t="n">
         <v>0</v>
@@ -65510,7 +65510,7 @@
         </is>
       </c>
       <c r="B758" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C758" t="n">
         <v>1</v>
@@ -65543,13 +65543,13 @@
         <v>0</v>
       </c>
       <c r="M758" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N758" t="n">
         <v>0</v>
       </c>
       <c r="O758" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P758" t="n">
         <v>1</v>
@@ -65574,7 +65574,7 @@
         </is>
       </c>
       <c r="B759" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C759" t="n">
         <v>0</v>
@@ -65607,7 +65607,7 @@
         <v>1</v>
       </c>
       <c r="M759" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N759" t="n">
         <v>0</v>
@@ -65702,7 +65702,7 @@
         </is>
       </c>
       <c r="B761" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C761" t="n">
         <v>0</v>
@@ -65741,7 +65741,7 @@
         <v>0</v>
       </c>
       <c r="O761" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P761" t="n">
         <v>0</v>
@@ -65894,7 +65894,7 @@
         </is>
       </c>
       <c r="B764" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C764" t="n">
         <v>0</v>
@@ -65909,10 +65909,10 @@
         <v>0</v>
       </c>
       <c r="G764" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I764" t="n">
         <v>0</v>
@@ -65958,7 +65958,7 @@
         </is>
       </c>
       <c r="B765" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C765" t="n">
         <v>0</v>
@@ -65991,7 +65991,7 @@
         <v>0</v>
       </c>
       <c r="M765" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N765" t="n">
         <v>1</v>
@@ -66278,7 +66278,7 @@
         </is>
       </c>
       <c r="B770" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C770" t="n">
         <v>0</v>
@@ -66287,16 +66287,16 @@
         <v>0</v>
       </c>
       <c r="E770" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F770" t="n">
         <v>0</v>
       </c>
       <c r="G770" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I770" t="n">
         <v>0</v>
@@ -66326,7 +66326,7 @@
         <v>0</v>
       </c>
       <c r="R770" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S770" t="n">
         <v>0</v>
@@ -66342,7 +66342,7 @@
         </is>
       </c>
       <c r="B771" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C771" t="n">
         <v>1</v>
@@ -66381,7 +66381,7 @@
         <v>0</v>
       </c>
       <c r="O771" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P771" t="n">
         <v>0</v>
@@ -67558,7 +67558,7 @@
         </is>
       </c>
       <c r="B790" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C790" t="n">
         <v>1</v>
@@ -67591,7 +67591,7 @@
         <v>1</v>
       </c>
       <c r="M790" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N790" t="n">
         <v>1</v>
@@ -67750,7 +67750,7 @@
         </is>
       </c>
       <c r="B793" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C793" t="n">
         <v>0</v>
@@ -67783,7 +67783,7 @@
         <v>0</v>
       </c>
       <c r="M793" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N793" t="n">
         <v>1</v>
@@ -67942,7 +67942,7 @@
         </is>
       </c>
       <c r="B796" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C796" t="n">
         <v>1</v>
@@ -67978,7 +67978,7 @@
         <v>1</v>
       </c>
       <c r="N796" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O796" t="n">
         <v>0</v>
@@ -68838,7 +68838,7 @@
         </is>
       </c>
       <c r="B810" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C810" t="n">
         <v>0</v>
@@ -68856,13 +68856,13 @@
         <v>0</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I810" t="n">
         <v>0</v>
       </c>
       <c r="J810" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K810" t="n">
         <v>0</v>
@@ -68871,7 +68871,7 @@
         <v>0</v>
       </c>
       <c r="M810" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N810" t="n">
         <v>0</v>
@@ -69606,19 +69606,19 @@
         </is>
       </c>
       <c r="B822" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C822" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D822" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E822" t="n">
         <v>0</v>
       </c>
       <c r="F822" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G822" t="n">
         <v>0</v>
@@ -69627,16 +69627,16 @@
         <v>0</v>
       </c>
       <c r="I822" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J822" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K822" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L822" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M822" t="n">
         <v>0</v>
@@ -69703,13 +69703,13 @@
         <v>0</v>
       </c>
       <c r="M823" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N823" t="n">
         <v>0</v>
       </c>
       <c r="O823" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P823" t="n">
         <v>0</v>
@@ -69990,7 +69990,7 @@
         </is>
       </c>
       <c r="B828" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C828" t="n">
         <v>0</v>
@@ -70020,16 +70020,16 @@
         <v>1</v>
       </c>
       <c r="L828" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M828" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N828" t="n">
         <v>1</v>
       </c>
       <c r="O828" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P828" t="n">
         <v>0</v>
@@ -70054,7 +70054,7 @@
         </is>
       </c>
       <c r="B829" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C829" t="n">
         <v>1</v>
@@ -70093,7 +70093,7 @@
         <v>1</v>
       </c>
       <c r="O829" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P829" t="n">
         <v>1</v>
@@ -70182,7 +70182,7 @@
         </is>
       </c>
       <c r="B831" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C831" t="n">
         <v>0</v>
@@ -70197,31 +70197,31 @@
         <v>0</v>
       </c>
       <c r="G831" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H831" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I831" t="n">
         <v>0</v>
       </c>
       <c r="J831" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K831" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L831" t="n">
         <v>0</v>
       </c>
       <c r="M831" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N831" t="n">
         <v>0</v>
       </c>
       <c r="O831" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P831" t="n">
         <v>0</v>
@@ -70630,7 +70630,7 @@
         </is>
       </c>
       <c r="B838" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C838" t="n">
         <v>1</v>
@@ -70663,7 +70663,7 @@
         <v>0</v>
       </c>
       <c r="M838" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N838" t="n">
         <v>0</v>
@@ -70694,7 +70694,7 @@
         </is>
       </c>
       <c r="B839" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C839" t="n">
         <v>0</v>
@@ -70733,7 +70733,7 @@
         <v>1</v>
       </c>
       <c r="O839" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P839" t="n">
         <v>0</v>
@@ -70758,7 +70758,7 @@
         </is>
       </c>
       <c r="B840" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C840" t="n">
         <v>0</v>
@@ -70797,7 +70797,7 @@
         <v>0</v>
       </c>
       <c r="O840" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P840" t="n">
         <v>0</v>
@@ -72230,7 +72230,7 @@
         </is>
       </c>
       <c r="B863" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C863" t="n">
         <v>0</v>
@@ -72251,13 +72251,13 @@
         <v>0</v>
       </c>
       <c r="I863" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J863" t="n">
         <v>0</v>
       </c>
       <c r="K863" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L863" t="n">
         <v>0</v>
@@ -72266,7 +72266,7 @@
         <v>0</v>
       </c>
       <c r="N863" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O863" t="n">
         <v>0</v>
@@ -72278,13 +72278,13 @@
         <v>0</v>
       </c>
       <c r="R863" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S863" t="n">
         <v>0</v>
       </c>
       <c r="T863" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="864">
@@ -72294,7 +72294,7 @@
         </is>
       </c>
       <c r="B864" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C864" t="n">
         <v>1</v>
@@ -72327,7 +72327,7 @@
         <v>1</v>
       </c>
       <c r="M864" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N864" t="n">
         <v>0</v>
@@ -72422,7 +72422,7 @@
         </is>
       </c>
       <c r="B866" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C866" t="n">
         <v>0</v>
@@ -72455,7 +72455,7 @@
         <v>0</v>
       </c>
       <c r="M866" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N866" t="n">
         <v>1</v>
@@ -72998,7 +72998,7 @@
         </is>
       </c>
       <c r="B875" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C875" t="n">
         <v>0</v>
@@ -73043,7 +73043,7 @@
         <v>0</v>
       </c>
       <c r="Q875" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R875" t="n">
         <v>0</v>
@@ -73510,7 +73510,7 @@
         </is>
       </c>
       <c r="B883" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C883" t="n">
         <v>0</v>
@@ -73540,7 +73540,7 @@
         <v>1</v>
       </c>
       <c r="L883" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M883" t="n">
         <v>1</v>
@@ -73702,7 +73702,7 @@
         </is>
       </c>
       <c r="B886" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C886" t="n">
         <v>0</v>
@@ -73735,7 +73735,7 @@
         <v>1</v>
       </c>
       <c r="M886" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N886" t="n">
         <v>0</v>
@@ -73958,7 +73958,7 @@
         </is>
       </c>
       <c r="B890" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C890" t="n">
         <v>1</v>
@@ -73988,7 +73988,7 @@
         <v>1</v>
       </c>
       <c r="L890" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M890" t="n">
         <v>0</v>
@@ -74214,7 +74214,7 @@
         </is>
       </c>
       <c r="B894" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C894" t="n">
         <v>1</v>
@@ -74247,7 +74247,7 @@
         <v>1</v>
       </c>
       <c r="M894" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N894" t="n">
         <v>1</v>
@@ -74308,7 +74308,7 @@
         <v>0</v>
       </c>
       <c r="L895" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M895" t="n">
         <v>1</v>
@@ -74317,7 +74317,7 @@
         <v>1</v>
       </c>
       <c r="O895" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P895" t="n">
         <v>0</v>
@@ -74790,7 +74790,7 @@
         </is>
       </c>
       <c r="B903" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C903" t="n">
         <v>1</v>
@@ -74829,7 +74829,7 @@
         <v>0</v>
       </c>
       <c r="O903" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P903" t="n">
         <v>0</v>
@@ -74918,7 +74918,7 @@
         </is>
       </c>
       <c r="B905" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C905" t="n">
         <v>0</v>
@@ -74948,7 +74948,7 @@
         <v>1</v>
       </c>
       <c r="L905" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M905" t="n">
         <v>1</v>
@@ -74957,7 +74957,7 @@
         <v>0</v>
       </c>
       <c r="O905" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P905" t="n">
         <v>0</v>
@@ -75238,7 +75238,7 @@
         </is>
       </c>
       <c r="B910" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C910" t="n">
         <v>0</v>
@@ -75277,7 +75277,7 @@
         <v>0</v>
       </c>
       <c r="O910" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P910" t="n">
         <v>0</v>
@@ -75622,7 +75622,7 @@
         </is>
       </c>
       <c r="B916" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C916" t="n">
         <v>1</v>
@@ -75652,7 +75652,7 @@
         <v>1</v>
       </c>
       <c r="L916" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M916" t="n">
         <v>1</v>
@@ -75661,7 +75661,7 @@
         <v>1</v>
       </c>
       <c r="O916" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P916" t="n">
         <v>0</v>

--- a/riders.xlsx
+++ b/riders.xlsx
@@ -12887,7 +12887,7 @@
         <v>3</v>
       </c>
       <c r="D692" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="693">
@@ -16019,7 +16019,7 @@
         <v>6</v>
       </c>
       <c r="D866" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="867">
@@ -16379,7 +16379,7 @@
         <v>3</v>
       </c>
       <c r="D886" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="887">
@@ -61286,7 +61286,7 @@
         </is>
       </c>
       <c r="B692" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C692" t="n">
         <v>0</v>
@@ -61337,10 +61337,10 @@
         <v>1</v>
       </c>
       <c r="S692" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T692" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="693">
@@ -72422,7 +72422,7 @@
         </is>
       </c>
       <c r="B866" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C866" t="n">
         <v>0</v>
@@ -72458,7 +72458,7 @@
         <v>0</v>
       </c>
       <c r="N866" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O866" t="n">
         <v>0</v>
@@ -73702,7 +73702,7 @@
         </is>
       </c>
       <c r="B886" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C886" t="n">
         <v>0</v>
@@ -73738,7 +73738,7 @@
         <v>1</v>
       </c>
       <c r="N886" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O886" t="n">
         <v>0</v>
